--- a/N related.xlsx
+++ b/N related.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guozhenning/Desktop/VSCodeProjects/BioChemComprehensiveHW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7FC308-8EA1-ED4E-9916-11641F128E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BB3CE0-AC5B-074C-B523-374B1C164DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="760" windowWidth="19420" windowHeight="17260" activeTab="3" xr2:uid="{BE01D711-1010-4EA0-A063-87746B47415A}"/>
+    <workbookView xWindow="7320" yWindow="740" windowWidth="19420" windowHeight="17260" xr2:uid="{BE01D711-1010-4EA0-A063-87746B47415A}"/>
   </bookViews>
   <sheets>
     <sheet name="Carbonhydrates" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="901">
   <si>
     <t>Pathway</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2665,10 +2665,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>un</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>lactonase</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2781,10 +2777,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CO2:1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3-phosphoglycerate:2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2853,18 +2845,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>linght</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>regeneration of RuBP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>phosphoribulokinase</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>glucose-alanine cycle</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3294,6 +3278,143 @@
   </si>
   <si>
     <t>specific enzyme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starch synthesis</t>
+  </si>
+  <si>
+    <t>Synthesis of the activated glucose precursor ADP-glucose from glucose 1-phosphate.</t>
+  </si>
+  <si>
+    <t>glucose 1-phosphate:1</t>
+  </si>
+  <si>
+    <t>ADP-glucose:1</t>
+  </si>
+  <si>
+    <t>PPi:1</t>
+  </si>
+  <si>
+    <t>ADP-glucose pyrophosphorylase</t>
+  </si>
+  <si>
+    <t>plants</t>
+  </si>
+  <si>
+    <t>chloroplast stroma</t>
+  </si>
+  <si>
+    <t>Ch20.pptx</t>
+  </si>
+  <si>
+    <t>Elongation of the starch chain by transferring the glucose residue from ADP-glucose to the nonreducing end.</t>
+  </si>
+  <si>
+    <t>ADP-glucose:1;starch(n):1</t>
+  </si>
+  <si>
+    <t>starch(n+1):1</t>
+  </si>
+  <si>
+    <t>starch synthase</t>
+  </si>
+  <si>
+    <t>sucrose synthesis</t>
+  </si>
+  <si>
+    <t>Condensation of UDP-glucose and fructose 6-phosphate to form sucrose 6-phosphate.</t>
+  </si>
+  <si>
+    <t>UDP-glucose:1;fructose 6-phosphate:1</t>
+  </si>
+  <si>
+    <t>sucrose 6-phosphate:1</t>
+  </si>
+  <si>
+    <t>UDP:1</t>
+  </si>
+  <si>
+    <t>sucrose 6-phosphate synthase</t>
+  </si>
+  <si>
+    <t>Removal of the phosphate group from sucrose 6-phosphate to yield sucrose.</t>
+  </si>
+  <si>
+    <t>sucrose:1</t>
+  </si>
+  <si>
+    <t>sucrose 6-phosphate phosphatase</t>
+  </si>
+  <si>
+    <t>C4 pathway</t>
+  </si>
+  <si>
+    <t>Fixation of HCO3- to PEP to form oxaloacetate in mesophyll cells.</t>
+  </si>
+  <si>
+    <t>phosphoenolpyruvate:1</t>
+  </si>
+  <si>
+    <t>HCO3-:1</t>
+  </si>
+  <si>
+    <t>PEP carboxylase</t>
+  </si>
+  <si>
+    <t>cytosol (mesophyll)</t>
+  </si>
+  <si>
+    <t>Reduction of oxaloacetate to malate.</t>
+  </si>
+  <si>
+    <t>malate dehydrogenase</t>
+  </si>
+  <si>
+    <t>chloroplast stroma (mesophyll)</t>
+  </si>
+  <si>
+    <t>Decarboxylation of malate to pyruvate in bundle-sheath cells.</t>
+  </si>
+  <si>
+    <t>pyruvate:1;CO2:1</t>
+  </si>
+  <si>
+    <t>malic enzyme</t>
+  </si>
+  <si>
+    <t>chloroplast stroma (bundle-sheath)</t>
+  </si>
+  <si>
+    <t>Regeneration of PEP from pyruvate in mesophyll cells.</t>
+  </si>
+  <si>
+    <t>ATP:1;Pi:1</t>
+  </si>
+  <si>
+    <t>AMP:1;PPi:1</t>
+  </si>
+  <si>
+    <t>pyruvate phosphate dikinase</t>
+  </si>
+  <si>
+    <t>chloroplast stroma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ribulose 1,5-bisphosphate:1;CO2:1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>convert glyceraldehyde 3-phosphate to ribulose 5-phosphate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi-enzymes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3301,7 +3422,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3343,6 +3464,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3366,7 +3492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3380,6 +3506,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3696,29 +3825,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7860E3-A355-D34C-A5F3-A08B9519F67D}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="F39" zoomScale="108" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-    <col min="2" max="2" width="150.5" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="58.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="57.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" customWidth="1"/>
-    <col min="8" max="8" width="55" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
-    <col min="11" max="11" width="34.5" customWidth="1"/>
-    <col min="12" max="12" width="51.5" customWidth="1"/>
-    <col min="13" max="13" width="26.5" customWidth="1"/>
-    <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="74.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="150.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="58.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="57.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="55" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="34.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="51.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="26.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="36.1640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="74.1640625" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16">
@@ -4713,25 +4843,25 @@
         <v>581</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>796</v>
-      </c>
       <c r="F22" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
@@ -5078,7 +5208,7 @@
         <v>640</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>658</v>
@@ -5573,11 +5703,11 @@
       <c r="F40" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>700</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
@@ -5606,7 +5736,7 @@
         <v>687</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -5618,10 +5748,10 @@
         <v>690</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>671</v>
@@ -5653,25 +5783,25 @@
         <v>687</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
@@ -5697,10 +5827,10 @@
     </row>
     <row r="43" spans="1:15" ht="16">
       <c r="A43" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -5708,14 +5838,14 @@
       <c r="D43" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>699</v>
+      <c r="E43" s="2">
+        <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>699</v>
+        <v>707</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>672</v>
@@ -5744,25 +5874,25 @@
     </row>
     <row r="44" spans="1:15" ht="16">
       <c r="A44" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>712</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>673</v>
@@ -5791,25 +5921,25 @@
     </row>
     <row r="45" spans="1:15" ht="16">
       <c r="A45" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="C45" s="2">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>674</v>
@@ -5833,33 +5963,33 @@
         <v>685</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="16">
       <c r="A46" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>675</v>
@@ -5868,10 +5998,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>722</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>684</v>
@@ -5880,33 +6010,33 @@
         <v>685</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16">
       <c r="A47" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>699</v>
+        <v>707</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>699</v>
+      <c r="G47" s="2">
+        <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
@@ -5932,75 +6062,73 @@
     </row>
     <row r="48" spans="1:15" ht="16">
       <c r="A48" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>726</v>
-      </c>
       <c r="C48" s="2">
         <v>0</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="H48" s="2" t="s">
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="J48" s="2">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="N48" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="O48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="16">
+      <c r="A49" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="O48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="16">
-      <c r="A49" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>739</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>741</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
@@ -6015,39 +6143,39 @@
         <v>0</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="O49" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="16">
+    <row r="50" spans="1:17" ht="16">
       <c r="A50" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>692</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>745</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
@@ -6056,45 +6184,45 @@
         <v>1</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>746</v>
+        <v>899</v>
       </c>
       <c r="L50" s="2">
         <v>0</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="O50" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="16">
+    <row r="51" spans="1:17" ht="16">
       <c r="A51" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>702</v>
+        <v>741</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>740</v>
-      </c>
       <c r="H51" s="2" t="s">
-        <v>748</v>
+        <v>900</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>604</v>
@@ -6103,27 +6231,27 @@
         <v>0</v>
       </c>
       <c r="K51" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="16">
+      <c r="A52" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="O51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="16">
-      <c r="A52" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -6132,16 +6260,16 @@
         <v>678</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>675</v>
@@ -6165,30 +6293,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="16">
+    <row r="53" spans="1:17" ht="16">
       <c r="A53" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="C53" s="2">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>753</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>675</v>
@@ -6212,12 +6340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="16">
+    <row r="54" spans="1:17" ht="16">
       <c r="A54" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -6250,21 +6378,21 @@
         <v>596</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="16">
+    <row r="55" spans="1:17" ht="16">
       <c r="A55" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -6297,21 +6425,21 @@
         <v>0</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="O55" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="16">
+    <row r="56" spans="1:17" ht="16">
       <c r="A56" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -6323,13 +6451,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="G56" s="2">
         <v>0</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="I56" s="2">
         <v>0</v>
@@ -6344,39 +6472,39 @@
         <v>0</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N56" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="16">
+      <c r="A57" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="O56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="16">
-      <c r="A57" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>797</v>
-      </c>
       <c r="H57" s="2" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="I57" s="2">
         <v>0</v>
@@ -6391,18 +6519,18 @@
         <v>0</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="O57" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="16">
+    <row r="58" spans="1:17" ht="16">
       <c r="A58" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>624</v>
@@ -6438,39 +6566,39 @@
         <v>0</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="O58" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="16">
+    <row r="59" spans="1:17" ht="16">
       <c r="A59" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="C59" s="2">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>796</v>
-      </c>
       <c r="F59" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="I59" s="2">
         <v>0</v>
@@ -6485,13 +6613,683 @@
         <v>0</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>590</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="16">
+      <c r="A60" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="5" customFormat="1" ht="16">
+      <c r="A61" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="5" customFormat="1" ht="16">
+      <c r="A62" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0</v>
+      </c>
+      <c r="K62" s="5">
+        <v>0</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" s="5" customFormat="1" ht="16">
+      <c r="A63" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="I63" s="5">
+        <v>0</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0</v>
+      </c>
+      <c r="K63" s="5">
+        <v>0</v>
+      </c>
+      <c r="L63" s="5">
+        <v>0</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="5" customFormat="1" ht="16">
+      <c r="A64" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="I64" s="5">
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <v>0</v>
+      </c>
+      <c r="K64" s="5">
+        <v>0</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" s="5" customFormat="1" ht="16">
+      <c r="A65" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <v>0</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" s="5" customFormat="1" ht="16">
+      <c r="A66" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <v>1</v>
+      </c>
+      <c r="K66" s="5">
+        <v>0</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="P66" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" s="5" customFormat="1" ht="16">
+      <c r="A67" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0</v>
+      </c>
+      <c r="J67" s="5">
+        <v>0</v>
+      </c>
+      <c r="K67" s="5">
+        <v>0</v>
+      </c>
+      <c r="L67" s="5">
+        <v>0</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="P67" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" s="5" customFormat="1" ht="16">
+      <c r="A68" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="I68" s="5">
+        <v>0</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0</v>
+      </c>
+      <c r="K68" s="5">
+        <v>0</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="P68" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="16">
+      <c r="A69" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="O69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="16">
+      <c r="A70" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="O70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="16">
+      <c r="A71" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="16">
+      <c r="A72" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="O72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="C73" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6504,8 +7302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1496BC-7380-0147-9321-E35B3610DEE7}">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="59" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B95" sqref="A95:XFD95"/>
+    <sheetView zoomScale="94" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6678,14 +7476,14 @@
       <c r="D4" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>162</v>
+      <c r="E4" s="2">
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>162</v>
+      <c r="G4" s="2">
+        <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>172</v>
@@ -6919,8 +7717,8 @@
       <c r="F9" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>162</v>
+      <c r="G9" s="2">
+        <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>198</v>
@@ -7107,8 +7905,8 @@
       <c r="F13" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>162</v>
+      <c r="G13" s="2">
+        <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>198</v>
@@ -7295,8 +8093,8 @@
       <c r="F17" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>162</v>
+      <c r="G17" s="2">
+        <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>198</v>
@@ -7483,8 +8281,8 @@
       <c r="F21" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>162</v>
+      <c r="G21" s="2">
+        <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>198</v>
@@ -7671,8 +8469,8 @@
       <c r="F25" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>162</v>
+      <c r="G25" s="2">
+        <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>198</v>
@@ -7859,8 +8657,8 @@
       <c r="F29" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>162</v>
+      <c r="G29" s="2">
+        <v>0</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>198</v>
@@ -8047,8 +8845,8 @@
       <c r="F33" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>162</v>
+      <c r="G33" s="2">
+        <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>257</v>
@@ -8141,8 +8939,8 @@
       <c r="F35" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>162</v>
+      <c r="G35" s="2">
+        <v>0</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>265</v>
@@ -8229,14 +9027,14 @@
       <c r="D37" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>162</v>
+      <c r="E37" s="2">
+        <v>0</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>162</v>
+      <c r="G37" s="2">
+        <v>0</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>274</v>
@@ -8310,7 +9108,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" ht="15" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>173</v>
       </c>
@@ -8370,14 +9168,14 @@
       <c r="D40" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>162</v>
+      <c r="E40" s="2">
+        <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>162</v>
+      <c r="G40" s="2">
+        <v>0</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>284</v>
@@ -8511,14 +9309,14 @@
       <c r="D43" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>162</v>
+      <c r="E43" s="2">
+        <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>162</v>
+      <c r="G43" s="2">
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>297</v>
@@ -8652,14 +9450,14 @@
       <c r="D46" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>162</v>
+      <c r="E46" s="2">
+        <v>0</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>162</v>
+      <c r="G46" s="2">
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>312</v>
@@ -8699,14 +9497,14 @@
       <c r="D47" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>162</v>
+      <c r="E47" s="2">
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>162</v>
+      <c r="G47" s="2">
+        <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>315</v>
@@ -8840,8 +9638,8 @@
       <c r="D50" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>162</v>
+      <c r="E50" s="2">
+        <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>324</v>
@@ -8934,8 +9732,8 @@
       <c r="D52" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>162</v>
+      <c r="E52" s="2">
+        <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>333</v>
@@ -8981,8 +9779,8 @@
       <c r="D53" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>162</v>
+      <c r="E53" s="2">
+        <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>337</v>
@@ -9175,8 +9973,8 @@
       <c r="F57" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>162</v>
+      <c r="G57" s="2">
+        <v>0</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>325</v>
@@ -9261,7 +10059,10 @@
         <v>0</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>858</v>
+        <v>854</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>359</v>
@@ -9354,8 +10155,8 @@
       <c r="D61" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>162</v>
+      <c r="E61" s="2">
+        <v>0</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>366</v>
@@ -9446,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>353</v>
@@ -9542,8 +10343,8 @@
       <c r="D65" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>162</v>
+      <c r="E65" s="2">
+        <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>378</v>
@@ -9730,8 +10531,8 @@
       <c r="D69" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>162</v>
+      <c r="E69" s="2">
+        <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>388</v>
@@ -9918,8 +10719,8 @@
       <c r="D73" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>162</v>
+      <c r="E73" s="2">
+        <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>398</v>
@@ -10106,8 +10907,8 @@
       <c r="D77" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>162</v>
+      <c r="E77" s="2">
+        <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>408</v>
@@ -10294,8 +11095,8 @@
       <c r="D81" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>162</v>
+      <c r="E81" s="2">
+        <v>0</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>424</v>
@@ -10482,8 +11283,8 @@
       <c r="D85" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>162</v>
+      <c r="E85" s="2">
+        <v>0</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>436</v>
@@ -10586,7 +11387,7 @@
         <v>441</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I87" s="2">
         <v>0</v>
@@ -10905,17 +11706,17 @@
       <c r="D94" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>162</v>
+      <c r="E94" s="2">
+        <v>0</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>162</v>
+      <c r="G94" s="2">
+        <v>0</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I94" s="2">
         <v>0</v>
@@ -10952,17 +11753,17 @@
       <c r="D95" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>162</v>
+      <c r="E95" s="2">
+        <v>0</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>162</v>
+      <c r="G95" s="2">
+        <v>0</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I95" s="2">
         <v>0</v>
@@ -10999,17 +11800,17 @@
       <c r="D96" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>162</v>
+      <c r="E96" s="2">
+        <v>0</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>162</v>
+      <c r="G96" s="2">
+        <v>0</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I96" s="2">
         <v>0</v>
@@ -11046,17 +11847,17 @@
       <c r="D97" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>162</v>
+      <c r="E97" s="2">
+        <v>0</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>162</v>
+      <c r="G97" s="2">
+        <v>0</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I97" s="2">
         <v>0</v>
@@ -11093,17 +11894,17 @@
       <c r="D98" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>162</v>
+      <c r="E98" s="2">
+        <v>0</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>162</v>
+      <c r="G98" s="2">
+        <v>0</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I98" s="2">
         <v>0</v>
@@ -11140,17 +11941,17 @@
       <c r="D99" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>162</v>
+      <c r="E99" s="2">
+        <v>0</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>162</v>
+      <c r="G99" s="2">
+        <v>0</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I99" s="2">
         <v>0</v>
@@ -11187,17 +11988,17 @@
       <c r="D100" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>162</v>
+      <c r="E100" s="2">
+        <v>0</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>162</v>
+      <c r="G100" s="2">
+        <v>0</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I100" s="2">
         <v>0</v>
@@ -11234,17 +12035,17 @@
       <c r="D101" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>162</v>
+      <c r="E101" s="2">
+        <v>0</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>162</v>
+      <c r="G101" s="2">
+        <v>0</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I101" s="2">
         <v>0</v>
@@ -11281,17 +12082,17 @@
       <c r="D102" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>162</v>
+      <c r="E102" s="2">
+        <v>0</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>162</v>
+      <c r="G102" s="2">
+        <v>0</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I102" s="2">
         <v>0</v>
@@ -11475,11 +12276,11 @@
       <c r="F106" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>162</v>
+      <c r="G106" s="2">
+        <v>0</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I106" s="2">
         <v>0</v>
@@ -11610,8 +12411,8 @@
       <c r="D109" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>162</v>
+      <c r="E109" s="2">
+        <v>0</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>324</v>
@@ -11757,11 +12558,11 @@
       <c r="F112" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>162</v>
+      <c r="G112" s="2">
+        <v>0</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I112" s="2">
         <v>0</v>
@@ -11845,17 +12646,17 @@
       <c r="D114" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>162</v>
+      <c r="E114" s="2">
+        <v>0</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>162</v>
+      <c r="G114" s="2">
+        <v>0</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I114" s="2">
         <v>0</v>
@@ -11986,17 +12787,17 @@
       <c r="D117" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>162</v>
+      <c r="E117" s="2">
+        <v>0</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>162</v>
+      <c r="G117" s="2">
+        <v>0</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I117" s="2">
         <v>0</v>
@@ -12033,17 +12834,17 @@
       <c r="D118" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>162</v>
+      <c r="E118" s="2">
+        <v>0</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="G118" s="2" t="s">
-        <v>162</v>
+      <c r="G118" s="2">
+        <v>0</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I118" s="2">
         <v>0</v>
@@ -12077,7 +12878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE7147-8029-FC41-88E0-72EB56229F62}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -12100,49 +12901,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16">
       <c r="A1" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16">
@@ -12297,13 +13098,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -12344,13 +13145,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -12391,13 +13192,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -12438,13 +13239,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -12485,13 +13286,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -12532,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -12585,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -12626,13 +13427,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -12673,13 +13474,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -12767,13 +13568,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -12813,8 +13614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C97F62D-42FB-F048-ACE4-D32C3522FC23}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H40" sqref="H38:H40"/>
+    <sheetView topLeftCell="G1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12836,49 +13637,49 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -12989,10 +13790,10 @@
         <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>60</v>
@@ -13042,7 +13843,7 @@
         <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>62</v>
@@ -13083,13 +13884,13 @@
         <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>64</v>
@@ -13127,16 +13928,16 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>831</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>835</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>65</v>
@@ -13221,7 +14022,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>859</v>
+        <v>855</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>81</v>
@@ -13453,16 +14257,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>118</v>
@@ -13500,13 +14304,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -13547,13 +14351,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -13594,13 +14398,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -13641,13 +14445,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -13688,13 +14492,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -13735,13 +14539,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -13782,16 +14586,16 @@
         <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>127</v>
@@ -13829,13 +14633,13 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>82</v>
@@ -13876,16 +14680,16 @@
         <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>130</v>
@@ -13923,16 +14727,16 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>813</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>131</v>
@@ -13973,10 +14777,10 @@
         <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>82</v>
@@ -14017,16 +14821,16 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>132</v>
@@ -14064,16 +14868,16 @@
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>130</v>
@@ -14111,16 +14915,16 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>133</v>
@@ -14158,16 +14962,16 @@
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>133</v>
@@ -14205,13 +15009,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>91</v>
@@ -14252,13 +15056,13 @@
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
@@ -14299,16 +15103,16 @@
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>143</v>
@@ -14346,10 +15150,10 @@
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>112</v>
@@ -14393,16 +15197,16 @@
         <v>0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>148</v>
@@ -14440,13 +15244,13 @@
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
@@ -14487,16 +15291,16 @@
         <v>0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>150</v>
@@ -14534,16 +15338,16 @@
         <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>151</v>
@@ -14581,19 +15385,19 @@
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -14628,19 +15432,19 @@
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -14675,19 +15479,19 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
@@ -14722,19 +15526,19 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>829</v>
-      </c>
       <c r="G41" s="2">
         <v>0</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
@@ -14795,7 +15599,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
